--- a/web_scraper/processed_judgements_final/crl.a._398_2020.xlsx
+++ b/web_scraper/processed_judgements_final/crl.a._398_2020.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * On January 16, 2014, Azeem Ahmed, the brother of the complainant, was shot and killed by Sajid Mehmood, along with three co-accused, outside the complainant's house. * The motive behind the murder was a previous incident where the accused had set fire to the complainant's house and falsely implicated Junaid and others in the incident. * The accused were armed with pistols and used a white-colored car to escape from the scene.   The crime scenario involves a murder case where the accused, appellant, allegedly fired a single shot that led to the death of the victim. The prosecution's story claimed that the motive for the murder was a blood feud between the parties, but the High Court disbelieved this part of the story. The appellant's brother, Shakeel, was supposed to testify about the motive, but he was not examined during the trial. The victim's body was found after a fire had been set to a haveli, and the prosecution claimed that the body was brought by Rescue 1122, but the documents did not support this claim.  </t>
+          <t xml:space="preserve"> * On January 16, 2014, Azeem Ahmed, the brother of the complainant, was murdered in front of the complainant's house in Jhelum. * The accused, Sajid Mehmood, along with three co-accused, arrived at the scene in a white-colored car and fired a pistol at Azeem Ahmed, causing his death. * The motive behind the murder was a grudge held by the accused against the complainant's family, as the accused had previously set fire to the complainant's house and falsely implicated someone else in the incident. * The complainant, Jameel Hussain, and his brother, Zameer Hussain, witnessed the murder.   * The appellant, along with his co-accused, allegedly fired a single shot that resulted in the death of someone. * The incident occurred on a night in January, and the body was found in a haveli (a type of building). * The prosecution's story claimed that the appellant and his co-accused had a motive to commit the crime, but the complainant was not an eyewitness to the incident and was not present when a compromise was allegedly made. * The prosecution also relied on the testimony of the appellant's brother, Shakeel, who was not examined during the trial.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Jameel Hussain, the complainant, testified that he witnessed the murder and identified the accused. * Zameer Hussain, the brother of the deceased, was also an eyewitness to the murder, but his statement under Section 161 Cr.P.C. was not recorded by the police. * Dr. Saeed Anwar (PW-7) testified that the dead body was brought to the hospital by Rescue 1122, while the prosecution witnesses claimed that it was brought in a car.   * The complainant was not an eyewitness to the incident of burning the haveli and was not present during the meeting where a compromise was allegedly made. * Shakeel, the appellant's brother, was not examined during the trial.  </t>
+          <t xml:space="preserve"> * Jameel Hussain (PW-10), the complainant, testified that he saw the accused arrive at the scene in a white-colored car and fire a pistol at Azeem Ahmed. * Zameer Hussain (PW-11), the brother of the complainant, also testified that he saw the accused arrive at the scene and fire a pistol at Azeem Ahmed. * Dr. Saeed Anwar (PW-7) testified that Azeem Ahmed's dead body was brought to the hospital, but did not specify how it was transported.   * The complainant was not an eyewitness to the incident of burning of the haveli. * Shakeel, the appellant's brother, was not examined during the trial. * The postmortem examination was conducted after two hours of the occurrence, but the results were not discussed in detail.  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * The Trial Court convicted Sajid Mehmood under Section 302(b) PPC and sentenced him to death. * The High Court maintained the conviction but altered the sentence to imprisonment for life. * The Supreme Court upheld the conviction and sentence, holding that the ocular account of the prosecution witnesses was reliable and trustworthy. * The Court also rejected the argument that Zameer Hussain's testimony was unreliable because his statement under Section 161 Cr.P.C. was not recorded. * The Court held that the prosecution's evidence was sufficient to sustain the conviction, even if the testimony of Zameer Hussain was discarded.  **Basis of Decision:**  * The Court applied Section 540 Cr.P.C., which empowers the Court to summon any person as a witness, even if their statement under Section 161 Cr.P.C. was not recorded. * The Court held that the quality of evidence, not the quantity, was relevant in determining the reliability of the witnesses. * The Court also relied on various precedents, including Abid Ali Vs. The State (2011 SCMR 208), Niaz-ud-Din Vs. The State (2011 SCMR 725), Asim Vs. The State (2005 SCMR 417), Lal Khan Vs. The State (2006 SCMR 1846), and Muhammad Sadiq Vs. The State (2022 SCMR 690).  The High Court found that the prosecution failed to prove the motive part of its story, and the appellant only fired a single shot. Considering these factors, the High Court converted the sentence of death to imprisonment for life. The Supreme Court agreed with the High Court's judgment, finding no merit in the appeal. The basis of the decision was that the prosecution failed to prove the motive part of its story, and the appellant's actions were not supported by evidence. The Court applied the principles of law on the subject, including the concept of rigor mortis, to reach its conclusion. </t>
+          <t xml:space="preserve"> * The appellant, Sajid Mehmood, was convicted of murder and sentenced to death by the trial court. * The conviction was upheld by the High Court, which altered the sentence to imprisonment for life. * The Supreme Court also upheld the conviction, finding the testimony of the prosecution witnesses, including Jameel Hussain and Zameer Hussain, to be reliable and credible. * The court rejected the appellant's arguments that the prosecution witnesses had inconsistent testimonies and that the medical evidence contradicted the ocular account. * The court also found that the recovery of the crime weapon, a .30 bore pistol, was sufficient to sustain the conviction. * The sentence was maintained, and the appellant was sentenced to imprisonment for life.  * The High Court disbelieved the motive part of the prosecution story and found that the appellant only fired a single shot. * The court took into consideration the fact that the motive part of the prosecution story was not proved, there was no blood feud between the parties, and what actually preceded the occurrence remained shrouded in mystery. * The court converted the sentence of death into imprisonment for life, considering the lenient view taken by the learned Trial Court. * The Supreme Court dismissed the appeal, finding no merit in it and approving the well-reasoned judgment of the High Court. </t>
         </is>
       </c>
     </row>
